--- a/Base/Teams/Texans/Distributions.xlsx
+++ b/Base/Teams/Texans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.6621585693075319, 0.4131608998927472, 1.4083735225944285, 2.3996977182743704)</t>
-  </si>
-  <si>
-    <t>JSU(-0.6712469906110954, 0.9626627960536966, 4.954140862558043, 3.954428595824398)</t>
-  </si>
-  <si>
-    <t>EXN(2.8355698353157615, -0.5555645707924515, 1.9226800927651806)</t>
-  </si>
-  <si>
-    <t>NIG(1.1660375226841426, 0.8910452211942806, 4.7611726138537325, 5.94568416982422)</t>
+    <t>NIG(0.7173212604331821, 0.4491229322558946, 1.4172469810181, 2.467447866022739)</t>
+  </si>
+  <si>
+    <t>NCT(2.313023586362248, 1.1834717658602893, 2.614935816503569, 4.001514159526913)</t>
+  </si>
+  <si>
+    <t>F(836.2363470994462, 17.635217929068403, -9.922188133077935, 13.097282845854316)</t>
+  </si>
+  <si>
+    <t>NCT(2.9213136182917894, 1.8429487208744229, -0.01492931809437336, 4.5641672076154)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Texans/Distributions.xlsx
+++ b/Base/Teams/Texans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.7173212604331821, 0.4491229322558946, 1.4172469810181, 2.467447866022739)</t>
-  </si>
-  <si>
-    <t>NCT(2.313023586362248, 1.1834717658602893, 2.614935816503569, 4.001514159526913)</t>
-  </si>
-  <si>
-    <t>F(836.2363470994462, 17.635217929068403, -9.922188133077935, 13.097282845854316)</t>
-  </si>
-  <si>
-    <t>NCT(2.9213136182917894, 1.8429487208744229, -0.01492931809437336, 4.5641672076154)</t>
+    <t>NIG(0.6942633242570948, 0.3981461132546792, 1.4961720406795351, 2.5994876987185243)</t>
+  </si>
+  <si>
+    <t>NIG(0.6069255158594491, 0.4003641969867814, 5.958451715171844, 4.685976978937511)</t>
+  </si>
+  <si>
+    <t>F(206.4510646425552, 16.277850638133582, -9.296039296200984, 12.509690660363582)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3749131636640661, 1.28512617685212, 2.118928461850451, 5.611909937533855)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Texans/Distributions.xlsx
+++ b/Base/Teams/Texans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.6942633242570948, 0.3981461132546792, 1.4961720406795351, 2.5994876987185243)</t>
-  </si>
-  <si>
-    <t>NIG(0.6069255158594491, 0.4003641969867814, 5.958451715171844, 4.685976978937511)</t>
-  </si>
-  <si>
-    <t>F(206.4510646425552, 16.277850638133582, -9.296039296200984, 12.509690660363582)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3749131636640661, 1.28512617685212, 2.118928461850451, 5.611909937533855)</t>
+    <t>NCT(2.5422241521478246, 1.0558352295969433, 0.22523177706319525, 2.04661586751143)</t>
+  </si>
+  <si>
+    <t>NIG(0.6357603174511297, 0.4407127731219181, 5.722300295976047, 4.739824404879383)</t>
+  </si>
+  <si>
+    <t>F(547.8741582047332, 16.376410060635095, -9.430234757451768, 12.620450290022482)</t>
+  </si>
+  <si>
+    <t>NIG(1.4032608258323256, 1.0845780052516263, 4.399606989454644, 6.06305669452199)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Texans/Distributions.xlsx
+++ b/Base/Teams/Texans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.5422241521478246, 1.0558352295969433, 0.22523177706319525, 2.04661586751143)</t>
-  </si>
-  <si>
-    <t>NIG(0.6357603174511297, 0.4407127731219181, 5.722300295976047, 4.739824404879383)</t>
-  </si>
-  <si>
-    <t>F(547.8741582047332, 16.376410060635095, -9.430234757451768, 12.620450290022482)</t>
-  </si>
-  <si>
-    <t>NIG(1.4032608258323256, 1.0845780052516263, 4.399606989454644, 6.06305669452199)</t>
+    <t>NCT(2.6506806930073017, 0.9895372330898513, 0.3895017181495386, 2.092490195104551)</t>
+  </si>
+  <si>
+    <t>NIG(0.6416845190653832, 0.441633232529803, 5.644212749393322, 4.71719442309704)</t>
+  </si>
+  <si>
+    <t>F(305.4486421138955, 16.121714900168392, -9.136066842126588, 12.328917391663836)</t>
+  </si>
+  <si>
+    <t>NIG(1.4737684713430976, 1.1594540624311656, 4.179205171568178, 6.110520539946036)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Texans/Distributions.xlsx
+++ b/Base/Teams/Texans/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.6506806930073017, 0.9895372330898513, 0.3895017181495386, 2.092490195104551)</t>
-  </si>
-  <si>
-    <t>NIG(0.6416845190653832, 0.441633232529803, 5.644212749393322, 4.71719442309704)</t>
-  </si>
-  <si>
-    <t>F(305.4486421138955, 16.121714900168392, -9.136066842126588, 12.328917391663836)</t>
-  </si>
-  <si>
-    <t>NIG(1.4737684713430976, 1.1594540624311656, 4.179205171568178, 6.110520539946036)</t>
+    <t>NCT(2.733499465052115, 1.0124218441036286, 0.2801831469448661, 2.1472377843122805)</t>
+  </si>
+  <si>
+    <t>NIG(0.6314786235156741, 0.4416890479884843, 5.649031923965321, 4.7667876086525505)</t>
+  </si>
+  <si>
+    <t>JSB(11.702062825044766, 2.184749358821729, -6.902419207237706, 2265.562738089097)</t>
+  </si>
+  <si>
+    <t>NIG(1.8167914545491521, 1.4518001816670671, 3.4378365801249053, 6.441663861112954)</t>
   </si>
 </sst>
 </file>
